--- a/medicine/Enfance/John_Schoenherr/John_Schoenherr.xlsx
+++ b/medicine/Enfance/John_Schoenherr/John_Schoenherr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Carl Schoenherr est un illustrateur américain né le 5 juillet 1935 à New York et mort le 8 avril 2010 à Easton.
 Il remporte notamment le prix Hugo du meilleur artiste professionnel en 1965 puis la médaille Caldecott en 1988 pour l'illustration du livre pour enfants Owl Moon (en) de Jane Yolen.
@@ -513,11 +525,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1965 : Prix Hugo du meilleur artiste professionnel
 1988 : Médaille Caldecott, pour les illustrations de l'ouvrage jeunesse Owl Moon (en), sur un texte de Jane Yolen
-1990 : (international) « Honour List »[1] de l' IBBY pour les illustrations de l'ouvrage jeunesse Owl Moon (en), sur un texte de Jane Yolen</t>
+1990 : (international) « Honour List » de l' IBBY pour les illustrations de l'ouvrage jeunesse Owl Moon (en), sur un texte de Jane Yolen</t>
         </is>
       </c>
     </row>
